--- a/code/Energy/评估.xlsx
+++ b/code/Energy/评估.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="9">
   <si>
     <t>2016-10-11 11:00:00
 2016-10-12 11:00:00</t>
@@ -49,6 +49,10 @@
   </si>
   <si>
     <t>能耗值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lagrange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,6 +113,514 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13162 KNN填补</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$Z$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>21.673660179999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.024322819999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.862010210000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.547974</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.281613979999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.833032979999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.095854849999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.630908229999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.439239319999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.946461060000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.23743649</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.725385939999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.191034180000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.11833652</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.0400223</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.36539084</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.36655069</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.45103314</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.665733579999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.92754987</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.537455779999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.667290640000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24.872693640000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.49900877</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2016-10-11 11:00:00
+2016-10-12 11:00:00 真实</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$Z$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>25.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>能耗值 均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$8:$Z$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>18.791666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.791666670000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9:$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>能耗值 Lagrange</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$9:$Z$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="56581120"/>
+        <c:axId val="62035072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="56581120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62035072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62035072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56581120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>309562</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -914,2511 +1426,2589 @@
         <v>18.791666670000001</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>15.5</v>
+      </c>
+      <c r="D9">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E9">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F9">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G9">
+        <v>15.9</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>14.4</v>
+      </c>
+      <c r="J9">
+        <v>13.1</v>
+      </c>
+      <c r="K9">
+        <v>9.9</v>
+      </c>
+      <c r="L9">
+        <v>11.2</v>
+      </c>
+      <c r="M9">
+        <v>10.8</v>
+      </c>
+      <c r="N9">
+        <v>10.4</v>
+      </c>
+      <c r="O9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="P9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>10.3</v>
+      </c>
+      <c r="R9">
+        <v>14.1</v>
+      </c>
+      <c r="S9">
+        <v>13.8</v>
+      </c>
+      <c r="T9">
+        <v>12.5</v>
+      </c>
+      <c r="U9">
+        <v>18.5</v>
+      </c>
+      <c r="V9">
+        <v>15.3</v>
+      </c>
+      <c r="W9">
+        <v>17.3</v>
+      </c>
+      <c r="X9">
+        <v>18.7</v>
+      </c>
+      <c r="Y9">
+        <v>15.2</v>
+      </c>
+      <c r="Z9">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>13162</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>5.1499507700000002</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>5.4948346399999997</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>4.8991332700000001</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>5.76498344</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>5.1175205400000001</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>5.11633155</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>5.1469377100000004</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>4.61180257</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>5.0821260500000003</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>4.39246611</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>4.3885973500000004</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>3.84900427</v>
       </c>
-      <c r="O10">
+      <c r="O11">
         <v>3.7626415299999998</v>
       </c>
-      <c r="P10">
+      <c r="P11">
         <v>3.23582335</v>
       </c>
-      <c r="Q10">
+      <c r="Q11">
         <v>3.3303378700000001</v>
       </c>
-      <c r="R10">
+      <c r="R11">
         <v>3.0987712200000002</v>
       </c>
-      <c r="S10">
+      <c r="S11">
         <v>3.10990974</v>
       </c>
-      <c r="T10">
+      <c r="T11">
         <v>3.2076173200000002</v>
       </c>
-      <c r="U10">
+      <c r="U11">
         <v>3.1917780900000001</v>
       </c>
-      <c r="V10">
+      <c r="V11">
         <v>3.1725297600000002</v>
       </c>
-      <c r="W10">
+      <c r="W11">
         <v>2.9432972799999999</v>
       </c>
-      <c r="X10">
+      <c r="X11">
         <v>3.8947623400000002</v>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <v>4.0903755999999998</v>
       </c>
-      <c r="Z10">
+      <c r="Z11">
         <v>3.94846765</v>
-      </c>
-      <c r="AC10">
-        <f>SUMXMY2(C10:Z10,C11:Z11)/COUNT(C10:Z10)</f>
-        <v>0.19113404317684249</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>5.9341211999999999</v>
-      </c>
-      <c r="D11">
-        <v>5.3557958299999999</v>
-      </c>
-      <c r="E11">
-        <v>5.5066633100000004</v>
-      </c>
-      <c r="F11">
-        <v>6.26100075</v>
-      </c>
-      <c r="G11">
-        <v>5.2803620799999997</v>
-      </c>
-      <c r="H11">
-        <v>5.5820970599999997</v>
-      </c>
-      <c r="I11">
-        <v>4.47573548</v>
-      </c>
-      <c r="J11">
-        <v>4.75232587</v>
-      </c>
-      <c r="K11">
-        <v>5.1546391800000002</v>
-      </c>
-      <c r="L11">
-        <v>4.5511692200000002</v>
-      </c>
-      <c r="M11">
-        <v>4.0482775999999996</v>
-      </c>
-      <c r="N11">
-        <v>3.3693738999999998</v>
-      </c>
-      <c r="O11">
-        <v>3.2436509899999999</v>
-      </c>
-      <c r="P11">
-        <v>2.8664822700000001</v>
-      </c>
-      <c r="Q11">
-        <v>3.14307267</v>
-      </c>
-      <c r="R11">
-        <v>2.66532562</v>
-      </c>
-      <c r="S11">
-        <v>2.7659039500000002</v>
-      </c>
-      <c r="T11">
-        <v>3.14307267</v>
-      </c>
-      <c r="U11">
-        <v>2.8664822700000001</v>
-      </c>
-      <c r="V11">
-        <v>2.8664822700000001</v>
-      </c>
-      <c r="W11">
-        <v>3.0676389199999998</v>
-      </c>
-      <c r="X11">
-        <v>3.9476992700000002</v>
-      </c>
-      <c r="Y11">
-        <v>4.0734221799999997</v>
-      </c>
-      <c r="Z11">
-        <v>5.07920543</v>
       </c>
       <c r="AC11">
         <f>SUMXMY2(C11:Z11,C12:Z12)/COUNT(C11:Z11)</f>
+        <v>0.19113404317684249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>5.9341211999999999</v>
+      </c>
+      <c r="D12">
+        <v>5.3557958299999999</v>
+      </c>
+      <c r="E12">
+        <v>5.5066633100000004</v>
+      </c>
+      <c r="F12">
+        <v>6.26100075</v>
+      </c>
+      <c r="G12">
+        <v>5.2803620799999997</v>
+      </c>
+      <c r="H12">
+        <v>5.5820970599999997</v>
+      </c>
+      <c r="I12">
+        <v>4.47573548</v>
+      </c>
+      <c r="J12">
+        <v>4.75232587</v>
+      </c>
+      <c r="K12">
+        <v>5.1546391800000002</v>
+      </c>
+      <c r="L12">
+        <v>4.5511692200000002</v>
+      </c>
+      <c r="M12">
+        <v>4.0482775999999996</v>
+      </c>
+      <c r="N12">
+        <v>3.3693738999999998</v>
+      </c>
+      <c r="O12">
+        <v>3.2436509899999999</v>
+      </c>
+      <c r="P12">
+        <v>2.8664822700000001</v>
+      </c>
+      <c r="Q12">
+        <v>3.14307267</v>
+      </c>
+      <c r="R12">
+        <v>2.66532562</v>
+      </c>
+      <c r="S12">
+        <v>2.7659039500000002</v>
+      </c>
+      <c r="T12">
+        <v>3.14307267</v>
+      </c>
+      <c r="U12">
+        <v>2.8664822700000001</v>
+      </c>
+      <c r="V12">
+        <v>2.8664822700000001</v>
+      </c>
+      <c r="W12">
+        <v>3.0676389199999998</v>
+      </c>
+      <c r="X12">
+        <v>3.9476992700000002</v>
+      </c>
+      <c r="Y12">
+        <v>4.0734221799999997</v>
+      </c>
+      <c r="Z12">
+        <v>5.07920543</v>
+      </c>
+      <c r="AC12">
+        <f>SUMXMY2(C12:Z12,C13:Z13)/COUNT(C12:Z12)</f>
         <v>1.2711638134826757</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C12">
-        <f>AVERAGE(C11:Z11)</f>
+      <c r="C13">
+        <f>AVERAGE(C12:Z12)</f>
         <v>4.1666666662499994</v>
       </c>
-      <c r="D12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="E12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="F12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="G12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="H12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="I12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="J12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="K12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="L12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="M12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="N12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="O12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="P12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="Q12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="R12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="S12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="T12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="U12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="V12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="W12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="X12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="Y12">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="Z12">
+      <c r="D13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="E13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="F13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="G13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="H13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="I13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="J13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="K13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="L13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="M13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="N13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="O13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="P13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="Q13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="R13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="S13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="T13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="U13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="V13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="W13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="X13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="Y13">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="Z13">
         <v>4.1666666660000002</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A15">
         <v>13162</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>20.481354199999998</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>21.852957350000001</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>19.483853029999999</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>22.92733913</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>20.35237918</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>20.347650569999999</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>20.469371259999999</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>18.34113881</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>20.211615290000001</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>17.468837709999999</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>17.45345167</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <v>15.307489970000001</v>
       </c>
-      <c r="O14">
+      <c r="O15">
         <v>14.96402535</v>
       </c>
-      <c r="P14">
+      <c r="P15">
         <v>12.86886947</v>
       </c>
-      <c r="Q14">
+      <c r="Q15">
         <v>13.2447537</v>
       </c>
-      <c r="R14">
+      <c r="R15">
         <v>12.32381314</v>
       </c>
-      <c r="S14">
+      <c r="S15">
         <v>12.368111040000001</v>
       </c>
-      <c r="T14">
+      <c r="T15">
         <v>12.756694080000001</v>
       </c>
-      <c r="U14">
+      <c r="U15">
         <v>12.69370148</v>
       </c>
-      <c r="V14">
+      <c r="V15">
         <v>12.617150840000001</v>
       </c>
-      <c r="W14">
+      <c r="W15">
         <v>11.70549329</v>
       </c>
-      <c r="X14">
+      <c r="X15">
         <v>15.48946984</v>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <v>16.26742376</v>
       </c>
-      <c r="Z14">
+      <c r="Z15">
         <v>15.703055839999999</v>
-      </c>
-      <c r="AC14">
-        <f>SUMXMY2(C14:Z14,C15:Z15)/COUNT(C14:Z14)</f>
-        <v>3.0230771389159741</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>23.6</v>
-      </c>
-      <c r="D15">
-        <v>21.3</v>
-      </c>
-      <c r="E15">
-        <v>21.9</v>
-      </c>
-      <c r="F15">
-        <v>24.9</v>
-      </c>
-      <c r="G15">
-        <v>21</v>
-      </c>
-      <c r="H15">
-        <v>22.2</v>
-      </c>
-      <c r="I15">
-        <v>17.8</v>
-      </c>
-      <c r="J15">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="K15">
-        <v>20.5</v>
-      </c>
-      <c r="L15">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="M15">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="N15">
-        <v>13.4</v>
-      </c>
-      <c r="O15">
-        <v>12.9</v>
-      </c>
-      <c r="P15">
-        <v>11.4</v>
-      </c>
-      <c r="Q15">
-        <v>12.5</v>
-      </c>
-      <c r="R15">
-        <v>10.6</v>
-      </c>
-      <c r="S15">
-        <v>11</v>
-      </c>
-      <c r="T15">
-        <v>12.5</v>
-      </c>
-      <c r="U15">
-        <v>11.4</v>
-      </c>
-      <c r="V15">
-        <v>11.4</v>
-      </c>
-      <c r="W15">
-        <v>12.2</v>
-      </c>
-      <c r="X15">
-        <v>15.7</v>
-      </c>
-      <c r="Y15">
-        <v>16.2</v>
-      </c>
-      <c r="Z15">
-        <v>20.2</v>
       </c>
       <c r="AC15">
         <f>SUMXMY2(C15:Z15,C16:Z16)/COUNT(C15:Z15)</f>
+        <v>3.0230771389159741</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="27" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>23.6</v>
+      </c>
+      <c r="D16">
+        <v>21.3</v>
+      </c>
+      <c r="E16">
+        <v>21.9</v>
+      </c>
+      <c r="F16">
+        <v>24.9</v>
+      </c>
+      <c r="G16">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>22.2</v>
+      </c>
+      <c r="I16">
+        <v>17.8</v>
+      </c>
+      <c r="J16">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="K16">
+        <v>20.5</v>
+      </c>
+      <c r="L16">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="M16">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="N16">
+        <v>13.4</v>
+      </c>
+      <c r="O16">
+        <v>12.9</v>
+      </c>
+      <c r="P16">
+        <v>11.4</v>
+      </c>
+      <c r="Q16">
+        <v>12.5</v>
+      </c>
+      <c r="R16">
+        <v>10.6</v>
+      </c>
+      <c r="S16">
+        <v>11</v>
+      </c>
+      <c r="T16">
+        <v>12.5</v>
+      </c>
+      <c r="U16">
+        <v>11.4</v>
+      </c>
+      <c r="V16">
+        <v>11.4</v>
+      </c>
+      <c r="W16">
+        <v>12.2</v>
+      </c>
+      <c r="X16">
+        <v>15.7</v>
+      </c>
+      <c r="Y16">
+        <v>16.2</v>
+      </c>
+      <c r="Z16">
+        <v>20.2</v>
+      </c>
+      <c r="AC16">
+        <f>SUMXMY2(C16:Z16,C17:Z17)/COUNT(C16:Z16)</f>
         <v>20.105399303603004</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C16">
-        <f>AVERAGE(C15:Z15)</f>
+      <c r="C17">
+        <f>AVERAGE(C16:Z16)</f>
         <v>16.570833333333329</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>16.570833329999999</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>16.570833329999999</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>16.570833329999999</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>16.570833329999999</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>16.570833329999999</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>16.570833329999999</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>16.570833329999999</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>16.570833329999999</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <v>16.570833329999999</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <v>16.570833329999999</v>
       </c>
-      <c r="N16">
+      <c r="N17">
         <v>16.570833329999999</v>
       </c>
-      <c r="O16">
+      <c r="O17">
         <v>16.570833329999999</v>
       </c>
-      <c r="P16">
+      <c r="P17">
         <v>16.570833329999999</v>
       </c>
-      <c r="Q16">
+      <c r="Q17">
         <v>16.570833329999999</v>
       </c>
-      <c r="R16">
+      <c r="R17">
         <v>16.570833329999999</v>
       </c>
-      <c r="S16">
+      <c r="S17">
         <v>16.570833329999999</v>
       </c>
-      <c r="T16">
+      <c r="T17">
         <v>16.570833329999999</v>
       </c>
-      <c r="U16">
+      <c r="U17">
         <v>16.570833329999999</v>
       </c>
-      <c r="V16">
+      <c r="V17">
         <v>16.570833329999999</v>
       </c>
-      <c r="W16">
+      <c r="W17">
         <v>16.570833329999999</v>
       </c>
-      <c r="X16">
+      <c r="X17">
         <v>16.570833329999999</v>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <v>16.570833329999999</v>
       </c>
-      <c r="Z16">
+      <c r="Z17">
         <v>16.570833329999999</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A19">
         <v>13475</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>6.0433132699999996</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>5.6157827200000003</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>6.0134181800000004</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>6.3748738700000001</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>5.2738493499999999</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>5.2503418799999997</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>5.4776080800000004</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>6.0755817299999997</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>6.2595589</v>
       </c>
-      <c r="L18">
+      <c r="L19">
         <v>6.0774304600000004</v>
       </c>
-      <c r="M18">
+      <c r="M19">
         <v>5.0104256700000001</v>
       </c>
-      <c r="N18">
+      <c r="N19">
         <v>2.6557433100000001</v>
       </c>
-      <c r="O18">
+      <c r="O19">
         <v>1.9097469199999999</v>
       </c>
-      <c r="P18">
+      <c r="P19">
         <v>1.7820649099999999</v>
       </c>
-      <c r="Q18">
+      <c r="Q19">
         <v>1.83025232</v>
       </c>
-      <c r="R18">
+      <c r="R19">
         <v>1.75505698</v>
       </c>
-      <c r="S18">
+      <c r="S19">
         <v>1.90337081</v>
       </c>
-      <c r="T18">
+      <c r="T19">
         <v>1.8141993300000001</v>
       </c>
-      <c r="U18">
+      <c r="U19">
         <v>1.6384754500000001</v>
       </c>
-      <c r="V18">
+      <c r="V19">
         <v>2.03746888</v>
       </c>
-      <c r="W18">
+      <c r="W19">
         <v>3.5163188399999998</v>
       </c>
-      <c r="X18">
+      <c r="X19">
         <v>4.8249335899999997</v>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <v>5.7335651700000003</v>
       </c>
-      <c r="Z18">
+      <c r="Z19">
         <v>5.1266193500000004</v>
-      </c>
-      <c r="AC18">
-        <f>SUMXMY2(C18:Z18,C19:Z19)/COUNT(C18:Z18)</f>
-        <v>1.2394884749924573</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>3.9382005499999999</v>
-      </c>
-      <c r="D19">
-        <v>4.3715709</v>
-      </c>
-      <c r="E19">
-        <v>4.8192466899999999</v>
-      </c>
-      <c r="F19">
-        <v>5.0489750600000001</v>
-      </c>
-      <c r="G19">
-        <v>5.1011477999999997</v>
-      </c>
-      <c r="H19">
-        <v>5.85765256</v>
-      </c>
-      <c r="I19">
-        <v>7.0938099599999997</v>
-      </c>
-      <c r="J19">
-        <v>7.34289273</v>
-      </c>
-      <c r="K19">
-        <v>8.0009424800000009</v>
-      </c>
-      <c r="L19">
-        <v>5.2071762799999997</v>
-      </c>
-      <c r="M19">
-        <v>2.6229425399999999</v>
-      </c>
-      <c r="N19">
-        <v>2.3730182800000001</v>
-      </c>
-      <c r="O19">
-        <v>1.9918206599999999</v>
-      </c>
-      <c r="P19">
-        <v>1.89336565</v>
-      </c>
-      <c r="Q19">
-        <v>1.86727928</v>
-      </c>
-      <c r="R19">
-        <v>1.7427378899999999</v>
-      </c>
-      <c r="S19">
-        <v>1.7679827699999999</v>
-      </c>
-      <c r="T19">
-        <v>1.79491063</v>
-      </c>
-      <c r="U19">
-        <v>1.9396479200000001</v>
-      </c>
-      <c r="V19">
-        <v>3.2338685200000001</v>
-      </c>
-      <c r="W19">
-        <v>4.5432360599999999</v>
-      </c>
-      <c r="X19">
-        <v>6.7647850800000002</v>
-      </c>
-      <c r="Y19">
-        <v>5.6077282999999998</v>
-      </c>
-      <c r="Z19">
-        <v>5.0750614299999999</v>
       </c>
       <c r="AC19">
         <f>SUMXMY2(C19:Z19,C20:Z20)/COUNT(C19:Z19)</f>
+        <v>1.2394884749924573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>3.9382005499999999</v>
+      </c>
+      <c r="D20">
+        <v>4.3715709</v>
+      </c>
+      <c r="E20">
+        <v>4.8192466899999999</v>
+      </c>
+      <c r="F20">
+        <v>5.0489750600000001</v>
+      </c>
+      <c r="G20">
+        <v>5.1011477999999997</v>
+      </c>
+      <c r="H20">
+        <v>5.85765256</v>
+      </c>
+      <c r="I20">
+        <v>7.0938099599999997</v>
+      </c>
+      <c r="J20">
+        <v>7.34289273</v>
+      </c>
+      <c r="K20">
+        <v>8.0009424800000009</v>
+      </c>
+      <c r="L20">
+        <v>5.2071762799999997</v>
+      </c>
+      <c r="M20">
+        <v>2.6229425399999999</v>
+      </c>
+      <c r="N20">
+        <v>2.3730182800000001</v>
+      </c>
+      <c r="O20">
+        <v>1.9918206599999999</v>
+      </c>
+      <c r="P20">
+        <v>1.89336565</v>
+      </c>
+      <c r="Q20">
+        <v>1.86727928</v>
+      </c>
+      <c r="R20">
+        <v>1.7427378899999999</v>
+      </c>
+      <c r="S20">
+        <v>1.7679827699999999</v>
+      </c>
+      <c r="T20">
+        <v>1.79491063</v>
+      </c>
+      <c r="U20">
+        <v>1.9396479200000001</v>
+      </c>
+      <c r="V20">
+        <v>3.2338685200000001</v>
+      </c>
+      <c r="W20">
+        <v>4.5432360599999999</v>
+      </c>
+      <c r="X20">
+        <v>6.7647850800000002</v>
+      </c>
+      <c r="Y20">
+        <v>5.6077282999999998</v>
+      </c>
+      <c r="Z20">
+        <v>5.0750614299999999</v>
+      </c>
+      <c r="AC20">
+        <f>SUMXMY2(C20:Z20,C21:Z21)/COUNT(C20:Z20)</f>
         <v>3.880638943692754</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>3</v>
       </c>
-      <c r="C20">
-        <f>AVERAGE(C19:Z19)</f>
+      <c r="C21">
+        <f>AVERAGE(C20:Z20)</f>
         <v>4.1666666675000013</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="K20">
+      <c r="K21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="O20">
+      <c r="O21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="P20">
+      <c r="P21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="Q20">
+      <c r="Q21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="R20">
+      <c r="R21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="S20">
+      <c r="S21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="T20">
+      <c r="T21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="U20">
+      <c r="U21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="V20">
+      <c r="V21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="W20">
+      <c r="W21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="X20">
+      <c r="X21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <v>4.1666666680000004</v>
       </c>
-      <c r="Z20">
+      <c r="Z21">
         <v>4.1666666680000004</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A23">
         <v>13475</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>5</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>718.16317527000001</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>667.35715585000003</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>714.61056342999996</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>757.56451160999995</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>626.72316153999998</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>623.92962735000003</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>650.93703429000004</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>721.99783104000005</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <v>743.86094146999994</v>
       </c>
-      <c r="L22">
+      <c r="L23">
         <v>722.21752636999997</v>
       </c>
-      <c r="M22">
+      <c r="M23">
         <v>595.41894467999998</v>
       </c>
-      <c r="N22">
+      <c r="N23">
         <v>315.59791217999998</v>
       </c>
-      <c r="O22">
+      <c r="O23">
         <v>226.94668451000001</v>
       </c>
-      <c r="P22">
+      <c r="P23">
         <v>211.77346527</v>
       </c>
-      <c r="Q22">
+      <c r="Q23">
         <v>217.49986501000001</v>
       </c>
-      <c r="R22">
+      <c r="R23">
         <v>208.56395126000001</v>
       </c>
-      <c r="S22">
+      <c r="S23">
         <v>226.18897378</v>
       </c>
-      <c r="T22">
+      <c r="T23">
         <v>215.59219217</v>
       </c>
-      <c r="U22">
+      <c r="U23">
         <v>194.70986898999999</v>
       </c>
-      <c r="V22">
+      <c r="V23">
         <v>242.12465187000001</v>
       </c>
-      <c r="W22">
+      <c r="W23">
         <v>417.86526601000003</v>
       </c>
-      <c r="X22">
+      <c r="X23">
         <v>573.37580838999997</v>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <v>681.35395068000003</v>
       </c>
-      <c r="Z22">
+      <c r="Z23">
         <v>609.22693699000001</v>
-      </c>
-      <c r="AC22">
-        <f>SUMXMY2(C22:Z22,C23:Z23)/COUNT(C22:Z22)</f>
-        <v>17504.049887718993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23">
-        <v>468</v>
-      </c>
-      <c r="D23">
-        <v>519.5</v>
-      </c>
-      <c r="E23">
-        <v>572.70000000000005</v>
-      </c>
-      <c r="F23">
-        <v>600</v>
-      </c>
-      <c r="G23">
-        <v>606.20000000000005</v>
-      </c>
-      <c r="H23">
-        <v>696.1</v>
-      </c>
-      <c r="I23">
-        <v>843</v>
-      </c>
-      <c r="J23">
-        <v>872.6</v>
-      </c>
-      <c r="K23">
-        <v>950.8</v>
-      </c>
-      <c r="L23">
-        <v>618.79999999999995</v>
-      </c>
-      <c r="M23">
-        <v>311.7</v>
-      </c>
-      <c r="N23">
-        <v>282</v>
-      </c>
-      <c r="O23">
-        <v>236.7</v>
-      </c>
-      <c r="P23">
-        <v>225</v>
-      </c>
-      <c r="Q23">
-        <v>221.9</v>
-      </c>
-      <c r="R23">
-        <v>207.1</v>
-      </c>
-      <c r="S23">
-        <v>210.1</v>
-      </c>
-      <c r="T23">
-        <v>213.3</v>
-      </c>
-      <c r="U23">
-        <v>230.5</v>
-      </c>
-      <c r="V23">
-        <v>384.3</v>
-      </c>
-      <c r="W23">
-        <v>539.9</v>
-      </c>
-      <c r="X23">
-        <v>803.9</v>
-      </c>
-      <c r="Y23">
-        <v>666.4</v>
-      </c>
-      <c r="Z23">
-        <v>603.1</v>
       </c>
       <c r="AC23">
         <f>SUMXMY2(C23:Z23,C24:Z24)/COUNT(C23:Z23)</f>
+        <v>17504.049887718993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>468</v>
+      </c>
+      <c r="D24">
+        <v>519.5</v>
+      </c>
+      <c r="E24">
+        <v>572.70000000000005</v>
+      </c>
+      <c r="F24">
+        <v>600</v>
+      </c>
+      <c r="G24">
+        <v>606.20000000000005</v>
+      </c>
+      <c r="H24">
+        <v>696.1</v>
+      </c>
+      <c r="I24">
+        <v>843</v>
+      </c>
+      <c r="J24">
+        <v>872.6</v>
+      </c>
+      <c r="K24">
+        <v>950.8</v>
+      </c>
+      <c r="L24">
+        <v>618.79999999999995</v>
+      </c>
+      <c r="M24">
+        <v>311.7</v>
+      </c>
+      <c r="N24">
+        <v>282</v>
+      </c>
+      <c r="O24">
+        <v>236.7</v>
+      </c>
+      <c r="P24">
+        <v>225</v>
+      </c>
+      <c r="Q24">
+        <v>221.9</v>
+      </c>
+      <c r="R24">
+        <v>207.1</v>
+      </c>
+      <c r="S24">
+        <v>210.1</v>
+      </c>
+      <c r="T24">
+        <v>213.3</v>
+      </c>
+      <c r="U24">
+        <v>230.5</v>
+      </c>
+      <c r="V24">
+        <v>384.3</v>
+      </c>
+      <c r="W24">
+        <v>539.9</v>
+      </c>
+      <c r="X24">
+        <v>803.9</v>
+      </c>
+      <c r="Y24">
+        <v>666.4</v>
+      </c>
+      <c r="Z24">
+        <v>603.1</v>
+      </c>
+      <c r="AC24">
+        <f>SUMXMY2(C24:Z24,C25:Z25)/COUNT(C24:Z24)</f>
         <v>54802.36333333332</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C24">
-        <f>AVERAGE(C23:Z23)</f>
+      <c r="C25">
+        <f>AVERAGE(C24:Z24)</f>
         <v>495.14999999999992</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>495.15</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>495.15</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>495.15</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>495.15</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>495.15</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>495.15</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>495.15</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <v>495.15</v>
       </c>
-      <c r="L24">
+      <c r="L25">
         <v>495.15</v>
       </c>
-      <c r="M24">
+      <c r="M25">
         <v>495.15</v>
       </c>
-      <c r="N24">
+      <c r="N25">
         <v>495.15</v>
       </c>
-      <c r="O24">
+      <c r="O25">
         <v>495.15</v>
       </c>
-      <c r="P24">
+      <c r="P25">
         <v>495.15</v>
       </c>
-      <c r="Q24">
+      <c r="Q25">
         <v>495.15</v>
       </c>
-      <c r="R24">
+      <c r="R25">
         <v>495.15</v>
       </c>
-      <c r="S24">
+      <c r="S25">
         <v>495.15</v>
       </c>
-      <c r="T24">
+      <c r="T25">
         <v>495.15</v>
       </c>
-      <c r="U24">
+      <c r="U25">
         <v>495.15</v>
       </c>
-      <c r="V24">
+      <c r="V25">
         <v>495.15</v>
       </c>
-      <c r="W24">
+      <c r="W25">
         <v>495.15</v>
       </c>
-      <c r="X24">
+      <c r="X25">
         <v>495.15</v>
       </c>
-      <c r="Y24">
+      <c r="Y25">
         <v>495.15</v>
       </c>
-      <c r="Z24">
+      <c r="Z25">
         <v>495.15</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A27">
         <v>13475</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>5.5180317199999998</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>5.2450035100000001</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>5.8027705599999999</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>5.8696849899999997</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>5.0368871899999998</v>
       </c>
-      <c r="H26">
+      <c r="H27">
         <v>5.25659601</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>5.2792755099999997</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>4.5147756699999997</v>
       </c>
-      <c r="K26">
+      <c r="K27">
         <v>4.76794897</v>
       </c>
-      <c r="L26">
+      <c r="L27">
         <v>4.3834460799999997</v>
       </c>
-      <c r="M26">
+      <c r="M27">
         <v>4.1290726099999997</v>
       </c>
-      <c r="N26">
+      <c r="N27">
         <v>3.3834989499999999</v>
       </c>
-      <c r="O26">
+      <c r="O27">
         <v>3.3933251499999999</v>
       </c>
-      <c r="P26">
+      <c r="P27">
         <v>3.1100921000000001</v>
       </c>
-      <c r="Q26">
+      <c r="Q27">
         <v>3.02730502</v>
       </c>
-      <c r="R26">
+      <c r="R27">
         <v>3.0666289500000001</v>
       </c>
-      <c r="S26">
+      <c r="S27">
         <v>2.85402947</v>
       </c>
-      <c r="T26">
+      <c r="T27">
         <v>2.8690458699999999</v>
       </c>
-      <c r="U26">
+      <c r="U27">
         <v>3.2010162100000001</v>
       </c>
-      <c r="V26">
+      <c r="V27">
         <v>3.1861640100000002</v>
       </c>
-      <c r="W26">
+      <c r="W27">
         <v>3.6488024700000001</v>
       </c>
-      <c r="X26">
+      <c r="X27">
         <v>3.8949777800000001</v>
       </c>
-      <c r="Y26">
+      <c r="Y27">
         <v>4.2366173600000003</v>
       </c>
-      <c r="Z26">
+      <c r="Z27">
         <v>4.3250038399999999</v>
-      </c>
-      <c r="AC26">
-        <f>SUMXMY2(C26:Z26,C27:Z27)/COUNT(C26:Z26)</f>
-        <v>0.90922329882553543</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" ht="27" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>3.6811176400000001</v>
-      </c>
-      <c r="D27">
-        <v>4.9264053700000003</v>
-      </c>
-      <c r="E27">
-        <v>4.7642477000000003</v>
-      </c>
-      <c r="F27">
-        <v>5.1329138499999996</v>
-      </c>
-      <c r="G27">
-        <v>5.0074842000000004</v>
-      </c>
-      <c r="H27">
-        <v>5.5930535499999996</v>
-      </c>
-      <c r="I27">
-        <v>5.63532542</v>
-      </c>
-      <c r="J27">
-        <v>6.4648242600000003</v>
-      </c>
-      <c r="K27">
-        <v>6.1772369400000002</v>
-      </c>
-      <c r="L27">
-        <v>5.2569575300000002</v>
-      </c>
-      <c r="M27">
-        <v>3.7462578999999998</v>
-      </c>
-      <c r="N27">
-        <v>3.1780130799999999</v>
-      </c>
-      <c r="O27">
-        <v>2.7878645099999999</v>
-      </c>
-      <c r="P27">
-        <v>2.4524614699999998</v>
-      </c>
-      <c r="Q27">
-        <v>2.4746368799999998</v>
-      </c>
-      <c r="R27">
-        <v>2.4302860599999998</v>
-      </c>
-      <c r="S27">
-        <v>2.3499002099999999</v>
-      </c>
-      <c r="T27">
-        <v>2.3499002099999999</v>
-      </c>
-      <c r="U27">
-        <v>2.37068966</v>
-      </c>
-      <c r="V27">
-        <v>2.7615312099999998</v>
-      </c>
-      <c r="W27">
-        <v>3.60003881</v>
-      </c>
-      <c r="X27">
-        <v>5.8577724800000004</v>
-      </c>
-      <c r="Y27">
-        <v>5.3872380499999997</v>
-      </c>
-      <c r="Z27">
-        <v>5.6138430000000001</v>
       </c>
       <c r="AC27">
         <f>SUMXMY2(C27:Z27,C28:Z28)/COUNT(C27:Z27)</f>
+        <v>0.90922329882553543</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="27" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>3.6811176400000001</v>
+      </c>
+      <c r="D28">
+        <v>4.9264053700000003</v>
+      </c>
+      <c r="E28">
+        <v>4.7642477000000003</v>
+      </c>
+      <c r="F28">
+        <v>5.1329138499999996</v>
+      </c>
+      <c r="G28">
+        <v>5.0074842000000004</v>
+      </c>
+      <c r="H28">
+        <v>5.5930535499999996</v>
+      </c>
+      <c r="I28">
+        <v>5.63532542</v>
+      </c>
+      <c r="J28">
+        <v>6.4648242600000003</v>
+      </c>
+      <c r="K28">
+        <v>6.1772369400000002</v>
+      </c>
+      <c r="L28">
+        <v>5.2569575300000002</v>
+      </c>
+      <c r="M28">
+        <v>3.7462578999999998</v>
+      </c>
+      <c r="N28">
+        <v>3.1780130799999999</v>
+      </c>
+      <c r="O28">
+        <v>2.7878645099999999</v>
+      </c>
+      <c r="P28">
+        <v>2.4524614699999998</v>
+      </c>
+      <c r="Q28">
+        <v>2.4746368799999998</v>
+      </c>
+      <c r="R28">
+        <v>2.4302860599999998</v>
+      </c>
+      <c r="S28">
+        <v>2.3499002099999999</v>
+      </c>
+      <c r="T28">
+        <v>2.3499002099999999</v>
+      </c>
+      <c r="U28">
+        <v>2.37068966</v>
+      </c>
+      <c r="V28">
+        <v>2.7615312099999998</v>
+      </c>
+      <c r="W28">
+        <v>3.60003881</v>
+      </c>
+      <c r="X28">
+        <v>5.8577724800000004</v>
+      </c>
+      <c r="Y28">
+        <v>5.3872380499999997</v>
+      </c>
+      <c r="Z28">
+        <v>5.6138430000000001</v>
+      </c>
+      <c r="AC28">
+        <f>SUMXMY2(C28:Z28,C29:Z29)/COUNT(C28:Z28)</f>
         <v>1.9980358873298449</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="C28">
-        <f>AVERAGE(C27:Z27)</f>
+      <c r="C29">
+        <f>AVERAGE(C28:Z28)</f>
         <v>4.1666666662499994</v>
       </c>
-      <c r="D28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="E28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="F28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="G28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="H28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="I28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="J28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="K28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="L28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="M28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="N28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="O28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="P28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="Q28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="R28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="S28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="T28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="U28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="V28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="W28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="X28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="Y28">
-        <v>4.1666666660000002</v>
-      </c>
-      <c r="Z28">
+      <c r="D29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="E29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="F29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="G29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="H29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="I29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="J29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="K29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="L29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="M29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="N29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="O29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="P29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="Q29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="R29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="S29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="T29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="U29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="V29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="W29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="X29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="Y29">
+        <v>4.1666666660000002</v>
+      </c>
+      <c r="Z29">
         <v>4.1666666660000002</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A31">
         <v>13475</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>796.27404917000001</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>756.87498590999996</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>837.36300294</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>847.01902308000001</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>726.84296905999997</v>
       </c>
-      <c r="H30">
+      <c r="H31">
         <v>758.54783057999998</v>
       </c>
-      <c r="I30">
+      <c r="I31">
         <v>761.82057295000004</v>
       </c>
-      <c r="J30">
+      <c r="J31">
         <v>651.50018863000003</v>
       </c>
-      <c r="K30">
+      <c r="K31">
         <v>688.03410862999999</v>
       </c>
-      <c r="L30">
+      <c r="L31">
         <v>632.54880355</v>
       </c>
-      <c r="M30">
+      <c r="M31">
         <v>595.84169426000005</v>
       </c>
-      <c r="N30">
+      <c r="N31">
         <v>488.25243296000002</v>
       </c>
-      <c r="O30">
+      <c r="O31">
         <v>489.67039175999997</v>
       </c>
-      <c r="P30">
+      <c r="P31">
         <v>448.79873027000002</v>
       </c>
-      <c r="Q30">
+      <c r="Q31">
         <v>436.85222377999997</v>
       </c>
-      <c r="R30">
+      <c r="R31">
         <v>442.52682436999999</v>
       </c>
-      <c r="S30">
+      <c r="S31">
         <v>411.84786845000002</v>
       </c>
-      <c r="T30">
+      <c r="T31">
         <v>414.01479548999998</v>
       </c>
-      <c r="U30">
+      <c r="U31">
         <v>461.91944302000002</v>
       </c>
-      <c r="V30">
+      <c r="V31">
         <v>459.77621084999998</v>
       </c>
-      <c r="W30">
+      <c r="W31">
         <v>526.53679160000002</v>
       </c>
-      <c r="X30">
+      <c r="X31">
         <v>562.06087327</v>
       </c>
-      <c r="Y30">
+      <c r="Y31">
         <v>611.36083123000003</v>
       </c>
-      <c r="Z30">
+      <c r="Z31">
         <v>624.11535418000005</v>
-      </c>
-      <c r="AC30">
-        <f>SUMXMY2(C30:Z30,C31:Z31)/COUNT(C30:Z30)</f>
-        <v>18933.342686596603</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" ht="27" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>531.20000000000005</v>
-      </c>
-      <c r="D31">
-        <v>710.9</v>
-      </c>
-      <c r="E31">
-        <v>687.5</v>
-      </c>
-      <c r="F31">
-        <v>740.7</v>
-      </c>
-      <c r="G31">
-        <v>722.6</v>
-      </c>
-      <c r="H31">
-        <v>807.1</v>
-      </c>
-      <c r="I31">
-        <v>813.2</v>
-      </c>
-      <c r="J31">
-        <v>932.9</v>
-      </c>
-      <c r="K31">
-        <v>891.4</v>
-      </c>
-      <c r="L31">
-        <v>758.6</v>
-      </c>
-      <c r="M31">
-        <v>540.6</v>
-      </c>
-      <c r="N31">
-        <v>458.6</v>
-      </c>
-      <c r="O31">
-        <v>402.3</v>
-      </c>
-      <c r="P31">
-        <v>353.9</v>
-      </c>
-      <c r="Q31">
-        <v>357.1</v>
-      </c>
-      <c r="R31">
-        <v>350.7</v>
-      </c>
-      <c r="S31">
-        <v>339.1</v>
-      </c>
-      <c r="T31">
-        <v>339.1</v>
-      </c>
-      <c r="U31">
-        <v>342.1</v>
-      </c>
-      <c r="V31">
-        <v>398.5</v>
-      </c>
-      <c r="W31">
-        <v>519.5</v>
-      </c>
-      <c r="X31">
-        <v>845.3</v>
-      </c>
-      <c r="Y31">
-        <v>777.4</v>
-      </c>
-      <c r="Z31">
-        <v>810.1</v>
       </c>
       <c r="AC31">
         <f>SUMXMY2(C31:Z31,C32:Z32)/COUNT(C31:Z31)</f>
+        <v>18933.342686596603</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="27" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>531.20000000000005</v>
+      </c>
+      <c r="D32">
+        <v>710.9</v>
+      </c>
+      <c r="E32">
+        <v>687.5</v>
+      </c>
+      <c r="F32">
+        <v>740.7</v>
+      </c>
+      <c r="G32">
+        <v>722.6</v>
+      </c>
+      <c r="H32">
+        <v>807.1</v>
+      </c>
+      <c r="I32">
+        <v>813.2</v>
+      </c>
+      <c r="J32">
+        <v>932.9</v>
+      </c>
+      <c r="K32">
+        <v>891.4</v>
+      </c>
+      <c r="L32">
+        <v>758.6</v>
+      </c>
+      <c r="M32">
+        <v>540.6</v>
+      </c>
+      <c r="N32">
+        <v>458.6</v>
+      </c>
+      <c r="O32">
+        <v>402.3</v>
+      </c>
+      <c r="P32">
+        <v>353.9</v>
+      </c>
+      <c r="Q32">
+        <v>357.1</v>
+      </c>
+      <c r="R32">
+        <v>350.7</v>
+      </c>
+      <c r="S32">
+        <v>339.1</v>
+      </c>
+      <c r="T32">
+        <v>339.1</v>
+      </c>
+      <c r="U32">
+        <v>342.1</v>
+      </c>
+      <c r="V32">
+        <v>398.5</v>
+      </c>
+      <c r="W32">
+        <v>519.5</v>
+      </c>
+      <c r="X32">
+        <v>845.3</v>
+      </c>
+      <c r="Y32">
+        <v>777.4</v>
+      </c>
+      <c r="Z32">
+        <v>810.1</v>
+      </c>
+      <c r="AC32">
+        <f>SUMXMY2(C32:Z32,C33:Z33)/COUNT(C32:Z32)</f>
         <v>41606.388888694266</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>3</v>
       </c>
-      <c r="C32">
-        <f>AVERAGE(C31:Z31)</f>
+      <c r="C33">
+        <f>AVERAGE(C32:Z32)</f>
         <v>601.26666666666665</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>601.26666669999997</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>601.26666669999997</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>601.26666669999997</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>601.26666669999997</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>601.26666669999997</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>601.26666669999997</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>601.26666669999997</v>
       </c>
-      <c r="K32">
+      <c r="K33">
         <v>601.26666669999997</v>
       </c>
-      <c r="L32">
+      <c r="L33">
         <v>601.26666669999997</v>
       </c>
-      <c r="M32">
+      <c r="M33">
         <v>601.26666669999997</v>
       </c>
-      <c r="N32">
+      <c r="N33">
         <v>601.26666669999997</v>
       </c>
-      <c r="O32">
+      <c r="O33">
         <v>601.26666669999997</v>
       </c>
-      <c r="P32">
+      <c r="P33">
         <v>601.26666669999997</v>
       </c>
-      <c r="Q32">
+      <c r="Q33">
         <v>601.26666669999997</v>
       </c>
-      <c r="R32">
+      <c r="R33">
         <v>601.26666669999997</v>
       </c>
-      <c r="S32">
+      <c r="S33">
         <v>601.26666669999997</v>
       </c>
-      <c r="T32">
+      <c r="T33">
         <v>601.26666669999997</v>
       </c>
-      <c r="U32">
+      <c r="U33">
         <v>601.26666669999997</v>
       </c>
-      <c r="V32">
+      <c r="V33">
         <v>601.26666669999997</v>
       </c>
-      <c r="W32">
+      <c r="W33">
         <v>601.26666669999997</v>
       </c>
-      <c r="X32">
+      <c r="X33">
         <v>601.26666669999997</v>
       </c>
-      <c r="Y32">
+      <c r="Y33">
         <v>601.26666669999997</v>
       </c>
-      <c r="Z32">
+      <c r="Z33">
         <v>601.26666669999997</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A34">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A35">
         <v>200010</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>5.3918175599999998</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>5.9266878299999997</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>6.0494683900000004</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>5.8664522999999997</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>4.5783940699999999</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>4.7960796500000002</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <v>5.3721786199999997</v>
       </c>
-      <c r="J34">
+      <c r="J35">
         <v>5.8970650500000001</v>
       </c>
-      <c r="K34">
+      <c r="K35">
         <v>6.2739699099999999</v>
       </c>
-      <c r="L34">
+      <c r="L35">
         <v>5.2604157599999999</v>
       </c>
-      <c r="M34">
+      <c r="M35">
         <v>3.9244199599999998</v>
       </c>
-      <c r="N34">
+      <c r="N35">
         <v>1.9739354899999999</v>
       </c>
-      <c r="O34">
+      <c r="O35">
         <v>1.4427826800000001</v>
       </c>
-      <c r="P34">
+      <c r="P35">
         <v>1.3150742799999999</v>
       </c>
-      <c r="Q34">
+      <c r="Q35">
         <v>1.3570870799999999</v>
       </c>
-      <c r="R34">
+      <c r="R35">
         <v>1.41908002</v>
       </c>
-      <c r="S34">
+      <c r="S35">
         <v>1.30544365</v>
       </c>
-      <c r="T34">
+      <c r="T35">
         <v>1.48138035</v>
       </c>
-      <c r="U34">
+      <c r="U35">
         <v>1.5119616300000001</v>
       </c>
-      <c r="V34">
+      <c r="V35">
         <v>2.7480348399999999</v>
       </c>
-      <c r="W34">
+      <c r="W35">
         <v>5.51555851</v>
       </c>
-      <c r="X34">
+      <c r="X35">
         <v>6.1208837799999998</v>
       </c>
-      <c r="Y34">
+      <c r="Y35">
         <v>7.6625819999999996</v>
       </c>
-      <c r="Z34">
+      <c r="Z35">
         <v>6.8092465899999999</v>
-      </c>
-      <c r="AC34">
-        <f>SUMXMY2(C34:Z34,C35:Z35)/COUNT(C34:Z34)</f>
-        <v>0.96376197021541588</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>7.0560564499999998</v>
-      </c>
-      <c r="D35">
-        <v>6.6117862299999999</v>
-      </c>
-      <c r="E35">
-        <v>6.9253887399999998</v>
-      </c>
-      <c r="F35">
-        <v>7.0299229099999998</v>
-      </c>
-      <c r="G35">
-        <v>6.8077877999999998</v>
-      </c>
-      <c r="H35">
-        <v>5.50111068</v>
-      </c>
-      <c r="I35">
-        <v>5.1613746200000001</v>
-      </c>
-      <c r="J35">
-        <v>5.2920423400000001</v>
-      </c>
-      <c r="K35">
-        <v>4.9915066000000001</v>
-      </c>
-      <c r="L35">
-        <v>5.3443094200000001</v>
-      </c>
-      <c r="M35">
-        <v>1.88161505</v>
-      </c>
-      <c r="N35">
-        <v>1.37201098</v>
-      </c>
-      <c r="O35">
-        <v>0.99307460999999997</v>
-      </c>
-      <c r="P35">
-        <v>1.0061413800000001</v>
-      </c>
-      <c r="Q35">
-        <v>1.0322749200000001</v>
-      </c>
-      <c r="R35">
-        <v>1.0061413800000001</v>
-      </c>
-      <c r="S35">
-        <v>0.78400627000000001</v>
-      </c>
-      <c r="T35">
-        <v>1.14987587</v>
-      </c>
-      <c r="U35">
-        <v>1.28054358</v>
-      </c>
-      <c r="V35">
-        <v>1.2413432600000001</v>
-      </c>
-      <c r="W35">
-        <v>6.04991507</v>
-      </c>
-      <c r="X35">
-        <v>5.3835097300000001</v>
-      </c>
-      <c r="Y35">
-        <v>8.8462040999999996</v>
-      </c>
-      <c r="Z35">
-        <v>7.2520580199999998</v>
       </c>
       <c r="AC35">
         <f>SUMXMY2(C35:Z35,C36:Z36)/COUNT(C35:Z35)</f>
+        <v>0.96376197021541588</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>7.0560564499999998</v>
+      </c>
+      <c r="D36">
+        <v>6.6117862299999999</v>
+      </c>
+      <c r="E36">
+        <v>6.9253887399999998</v>
+      </c>
+      <c r="F36">
+        <v>7.0299229099999998</v>
+      </c>
+      <c r="G36">
+        <v>6.8077877999999998</v>
+      </c>
+      <c r="H36">
+        <v>5.50111068</v>
+      </c>
+      <c r="I36">
+        <v>5.1613746200000001</v>
+      </c>
+      <c r="J36">
+        <v>5.2920423400000001</v>
+      </c>
+      <c r="K36">
+        <v>4.9915066000000001</v>
+      </c>
+      <c r="L36">
+        <v>5.3443094200000001</v>
+      </c>
+      <c r="M36">
+        <v>1.88161505</v>
+      </c>
+      <c r="N36">
+        <v>1.37201098</v>
+      </c>
+      <c r="O36">
+        <v>0.99307460999999997</v>
+      </c>
+      <c r="P36">
+        <v>1.0061413800000001</v>
+      </c>
+      <c r="Q36">
+        <v>1.0322749200000001</v>
+      </c>
+      <c r="R36">
+        <v>1.0061413800000001</v>
+      </c>
+      <c r="S36">
+        <v>0.78400627000000001</v>
+      </c>
+      <c r="T36">
+        <v>1.14987587</v>
+      </c>
+      <c r="U36">
+        <v>1.28054358</v>
+      </c>
+      <c r="V36">
+        <v>1.2413432600000001</v>
+      </c>
+      <c r="W36">
+        <v>6.04991507</v>
+      </c>
+      <c r="X36">
+        <v>5.3835097300000001</v>
+      </c>
+      <c r="Y36">
+        <v>8.8462040999999996</v>
+      </c>
+      <c r="Z36">
+        <v>7.2520580199999998</v>
+      </c>
+      <c r="AC36">
+        <f>SUMXMY2(C36:Z36,C37:Z37)/COUNT(C36:Z36)</f>
         <v>7.0831887225111165</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>3</v>
       </c>
-      <c r="C36">
-        <f>AVERAGE(C35:Z35)</f>
+      <c r="C37">
+        <f>AVERAGE(C36:Z36)</f>
         <v>4.1666666670833337</v>
       </c>
-      <c r="D36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="E36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="F36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="G36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="H36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="I36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="J36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="K36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="L36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="M36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="N36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="O36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="P36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="Q36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="R36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="S36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="T36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="U36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="V36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="W36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="X36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="Y36">
-        <v>4.1666666670000003</v>
-      </c>
-      <c r="Z36">
+      <c r="D37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="E37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="F37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="G37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="H37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="I37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="J37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="K37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="L37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="M37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="N37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="O37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="P37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="Q37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="R37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="S37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="T37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="U37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="V37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="W37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="X37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="Y37">
+        <v>4.1666666670000003</v>
+      </c>
+      <c r="Z37">
         <v>4.1666666670000003</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A38">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A39">
         <v>200010</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>5</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>41.263579790000001</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>45.35694195</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>46.296581590000002</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>44.89595946</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <v>35.038449780000001</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <v>36.704397540000002</v>
       </c>
-      <c r="I38">
+      <c r="I39">
         <v>41.11328297</v>
       </c>
-      <c r="J38">
+      <c r="J39">
         <v>45.130238859999999</v>
       </c>
-      <c r="K38">
+      <c r="K39">
         <v>48.0146917</v>
       </c>
-      <c r="L38">
+      <c r="L39">
         <v>40.25796184</v>
       </c>
-      <c r="M38">
+      <c r="M39">
         <v>30.03358596</v>
       </c>
-      <c r="N38">
+      <c r="N39">
         <v>15.10652827</v>
       </c>
-      <c r="O38">
+      <c r="O39">
         <v>11.041615869999999</v>
       </c>
-      <c r="P38">
+      <c r="P39">
         <v>10.064263479999999</v>
       </c>
-      <c r="Q38">
+      <c r="Q39">
         <v>10.38578746</v>
       </c>
-      <c r="R38">
+      <c r="R39">
         <v>10.86021938</v>
       </c>
-      <c r="S38">
+      <c r="S39">
         <v>9.9905602899999995</v>
       </c>
-      <c r="T38">
+      <c r="T39">
         <v>11.337003790000001</v>
       </c>
-      <c r="U38">
+      <c r="U39">
         <v>11.57104238</v>
       </c>
-      <c r="V38">
+      <c r="V39">
         <v>21.03071061</v>
       </c>
-      <c r="W38">
+      <c r="W39">
         <v>42.210569300000003</v>
       </c>
-      <c r="X38">
+      <c r="X39">
         <v>46.843123570000003</v>
       </c>
-      <c r="Y38">
+      <c r="Y39">
         <v>58.641740030000001</v>
       </c>
-      <c r="Z38">
+      <c r="Z39">
         <v>52.111164119999998</v>
-      </c>
-      <c r="AC38">
-        <f>SUMXMY2(C38:Z38,C39:Z39)/COUNT(C38:Z38)</f>
-        <v>56.446005126759097</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39">
-        <v>54</v>
-      </c>
-      <c r="D39">
-        <v>50.6</v>
-      </c>
-      <c r="E39">
-        <v>53</v>
-      </c>
-      <c r="F39">
-        <v>53.8</v>
-      </c>
-      <c r="G39">
-        <v>52.1</v>
-      </c>
-      <c r="H39">
-        <v>42.1</v>
-      </c>
-      <c r="I39">
-        <v>39.5</v>
-      </c>
-      <c r="J39">
-        <v>40.5</v>
-      </c>
-      <c r="K39">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="L39">
-        <v>40.9</v>
-      </c>
-      <c r="M39">
-        <v>14.4</v>
-      </c>
-      <c r="N39">
-        <v>10.5</v>
-      </c>
-      <c r="O39">
-        <v>7.6</v>
-      </c>
-      <c r="P39">
-        <v>7.7</v>
-      </c>
-      <c r="Q39">
-        <v>7.9</v>
-      </c>
-      <c r="R39">
-        <v>7.7</v>
-      </c>
-      <c r="S39">
-        <v>6</v>
-      </c>
-      <c r="T39">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="U39">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="V39">
-        <v>9.5</v>
-      </c>
-      <c r="W39">
-        <v>46.3</v>
-      </c>
-      <c r="X39">
-        <v>41.2</v>
-      </c>
-      <c r="Y39">
-        <v>67.7</v>
-      </c>
-      <c r="Z39">
-        <v>55.5</v>
       </c>
       <c r="AC39">
         <f>SUMXMY2(C39:Z39,C40:Z40)/COUNT(C39:Z39)</f>
+        <v>56.446005126759097</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>54</v>
+      </c>
+      <c r="D40">
+        <v>50.6</v>
+      </c>
+      <c r="E40">
+        <v>53</v>
+      </c>
+      <c r="F40">
+        <v>53.8</v>
+      </c>
+      <c r="G40">
+        <v>52.1</v>
+      </c>
+      <c r="H40">
+        <v>42.1</v>
+      </c>
+      <c r="I40">
+        <v>39.5</v>
+      </c>
+      <c r="J40">
+        <v>40.5</v>
+      </c>
+      <c r="K40">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="L40">
+        <v>40.9</v>
+      </c>
+      <c r="M40">
+        <v>14.4</v>
+      </c>
+      <c r="N40">
+        <v>10.5</v>
+      </c>
+      <c r="O40">
+        <v>7.6</v>
+      </c>
+      <c r="P40">
+        <v>7.7</v>
+      </c>
+      <c r="Q40">
+        <v>7.9</v>
+      </c>
+      <c r="R40">
+        <v>7.7</v>
+      </c>
+      <c r="S40">
+        <v>6</v>
+      </c>
+      <c r="T40">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="U40">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="V40">
+        <v>9.5</v>
+      </c>
+      <c r="W40">
+        <v>46.3</v>
+      </c>
+      <c r="X40">
+        <v>41.2</v>
+      </c>
+      <c r="Y40">
+        <v>67.7</v>
+      </c>
+      <c r="Z40">
+        <v>55.5</v>
+      </c>
+      <c r="AC40">
+        <f>SUMXMY2(C40:Z40,C41:Z41)/COUNT(C40:Z40)</f>
         <v>414.85109375000002</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="C40">
-        <f>AVERAGE(C39:Z39)</f>
+      <c r="C41">
+        <f>AVERAGE(C40:Z40)</f>
         <v>31.887499999999999</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>31.887499999999999</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>31.887499999999999</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>31.887499999999999</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>31.887499999999999</v>
       </c>
-      <c r="H40">
+      <c r="H41">
         <v>31.887499999999999</v>
       </c>
-      <c r="I40">
+      <c r="I41">
         <v>31.887499999999999</v>
       </c>
-      <c r="J40">
+      <c r="J41">
         <v>31.887499999999999</v>
       </c>
-      <c r="K40">
+      <c r="K41">
         <v>31.887499999999999</v>
       </c>
-      <c r="L40">
+      <c r="L41">
         <v>31.887499999999999</v>
       </c>
-      <c r="M40">
+      <c r="M41">
         <v>31.887499999999999</v>
       </c>
-      <c r="N40">
+      <c r="N41">
         <v>31.887499999999999</v>
       </c>
-      <c r="O40">
+      <c r="O41">
         <v>31.887499999999999</v>
       </c>
-      <c r="P40">
+      <c r="P41">
         <v>31.887499999999999</v>
       </c>
-      <c r="Q40">
+      <c r="Q41">
         <v>31.887499999999999</v>
       </c>
-      <c r="R40">
+      <c r="R41">
         <v>31.887499999999999</v>
       </c>
-      <c r="S40">
+      <c r="S41">
         <v>31.887499999999999</v>
       </c>
-      <c r="T40">
+      <c r="T41">
         <v>31.887499999999999</v>
       </c>
-      <c r="U40">
+      <c r="U41">
         <v>31.887499999999999</v>
       </c>
-      <c r="V40">
+      <c r="V41">
         <v>31.887499999999999</v>
       </c>
-      <c r="W40">
+      <c r="W41">
         <v>31.887499999999999</v>
       </c>
-      <c r="X40">
+      <c r="X41">
         <v>31.887499999999999</v>
       </c>
-      <c r="Y40">
+      <c r="Y41">
         <v>31.887499999999999</v>
       </c>
-      <c r="Z40">
+      <c r="Z41">
         <v>31.887499999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A42">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A43">
         <v>200010</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>5</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>6.4207171199999999</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>6.6365757900000002</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <v>6.4533804200000002</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <v>6.66497166</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>6.0223389899999997</v>
       </c>
-      <c r="H42">
+      <c r="H43">
         <v>5.8831740300000002</v>
       </c>
-      <c r="I42">
+      <c r="I43">
         <v>6.2274380100000002</v>
       </c>
-      <c r="J42">
+      <c r="J43">
         <v>5.5854155600000004</v>
       </c>
-      <c r="K42">
+      <c r="K43">
         <v>5.15135991</v>
       </c>
-      <c r="L42">
+      <c r="L43">
         <v>4.3543081199999998</v>
       </c>
-      <c r="M42">
+      <c r="M43">
         <v>3.3144862900000001</v>
       </c>
-      <c r="N42">
+      <c r="N43">
         <v>1.5351733700000001</v>
       </c>
-      <c r="O42">
+      <c r="O43">
         <v>1.52473528</v>
       </c>
-      <c r="P42">
+      <c r="P43">
         <v>1.5048537900000001</v>
       </c>
-      <c r="Q42">
+      <c r="Q43">
         <v>1.6214336499999999</v>
       </c>
-      <c r="R42">
+      <c r="R43">
         <v>1.5087477199999999</v>
       </c>
-      <c r="S42">
+      <c r="S43">
         <v>1.5004043600000001</v>
       </c>
-      <c r="T42">
+      <c r="T43">
         <v>1.6783266299999999</v>
       </c>
-      <c r="U42">
+      <c r="U43">
         <v>1.77093678</v>
       </c>
-      <c r="V42">
+      <c r="V43">
         <v>2.79252579</v>
       </c>
-      <c r="W42">
+      <c r="W43">
         <v>3.6873486199999999</v>
       </c>
-      <c r="X42">
+      <c r="X43">
         <v>4.3176783199999997</v>
       </c>
-      <c r="Y42">
+      <c r="Y43">
         <v>4.6113869100000002</v>
       </c>
-      <c r="Z42">
+      <c r="Z43">
         <v>4.2250476800000003</v>
       </c>
-      <c r="AA42">
+      <c r="AA43">
         <v>5.0072352100000002</v>
-      </c>
-      <c r="AC42">
-        <f>SUMXMY2(C42:AA42,C43:AA43)/COUNT(C42:AA42)</f>
-        <v>0.91523061743740097</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" ht="27" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43">
-        <v>8.3233890200000005</v>
-      </c>
-      <c r="D43">
-        <v>8.7410501200000006</v>
-      </c>
-      <c r="E43">
-        <v>7.1101829800000003</v>
-      </c>
-      <c r="F43">
-        <v>6.6030230699999999</v>
-      </c>
-      <c r="G43">
-        <v>6.7322991200000004</v>
-      </c>
-      <c r="H43">
-        <v>5.5787589500000001</v>
-      </c>
-      <c r="I43">
-        <v>6.9311853599999997</v>
-      </c>
-      <c r="J43">
-        <v>5.8571996799999999</v>
-      </c>
-      <c r="K43">
-        <v>6.1853619699999998</v>
-      </c>
-      <c r="L43">
-        <v>5.9765314199999997</v>
-      </c>
-      <c r="M43">
-        <v>1.4717581500000001</v>
-      </c>
-      <c r="N43">
-        <v>1.0143198099999999</v>
-      </c>
-      <c r="O43">
-        <v>0.91487669000000005</v>
-      </c>
-      <c r="P43">
-        <v>0.96459824999999999</v>
-      </c>
-      <c r="Q43">
-        <v>0.74582338999999997</v>
-      </c>
-      <c r="R43">
-        <v>0.81543357000000005</v>
-      </c>
-      <c r="S43">
-        <v>1.0441527399999999</v>
-      </c>
-      <c r="T43">
-        <v>0.87509943999999995</v>
-      </c>
-      <c r="U43">
-        <v>1.25298329</v>
-      </c>
-      <c r="V43">
-        <v>1.5115354000000001</v>
-      </c>
-      <c r="W43">
-        <v>4.0075576799999997</v>
-      </c>
-      <c r="X43">
-        <v>4.0672235499999996</v>
-      </c>
-      <c r="Y43">
-        <v>5.1412092300000003</v>
-      </c>
-      <c r="Z43">
-        <v>3.4108989699999999</v>
-      </c>
-      <c r="AA43">
-        <v>4.7235481300000002</v>
       </c>
       <c r="AC43">
         <f>SUMXMY2(C43:AA43,C44:AA44)/COUNT(C43:AA43)</f>
+        <v>0.91523061743740097</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="27" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>8.3233890200000005</v>
+      </c>
+      <c r="D44">
+        <v>8.7410501200000006</v>
+      </c>
+      <c r="E44">
+        <v>7.1101829800000003</v>
+      </c>
+      <c r="F44">
+        <v>6.6030230699999999</v>
+      </c>
+      <c r="G44">
+        <v>6.7322991200000004</v>
+      </c>
+      <c r="H44">
+        <v>5.5787589500000001</v>
+      </c>
+      <c r="I44">
+        <v>6.9311853599999997</v>
+      </c>
+      <c r="J44">
+        <v>5.8571996799999999</v>
+      </c>
+      <c r="K44">
+        <v>6.1853619699999998</v>
+      </c>
+      <c r="L44">
+        <v>5.9765314199999997</v>
+      </c>
+      <c r="M44">
+        <v>1.4717581500000001</v>
+      </c>
+      <c r="N44">
+        <v>1.0143198099999999</v>
+      </c>
+      <c r="O44">
+        <v>0.91487669000000005</v>
+      </c>
+      <c r="P44">
+        <v>0.96459824999999999</v>
+      </c>
+      <c r="Q44">
+        <v>0.74582338999999997</v>
+      </c>
+      <c r="R44">
+        <v>0.81543357000000005</v>
+      </c>
+      <c r="S44">
+        <v>1.0441527399999999</v>
+      </c>
+      <c r="T44">
+        <v>0.87509943999999995</v>
+      </c>
+      <c r="U44">
+        <v>1.25298329</v>
+      </c>
+      <c r="V44">
+        <v>1.5115354000000001</v>
+      </c>
+      <c r="W44">
+        <v>4.0075576799999997</v>
+      </c>
+      <c r="X44">
+        <v>4.0672235499999996</v>
+      </c>
+      <c r="Y44">
+        <v>5.1412092300000003</v>
+      </c>
+      <c r="Z44">
+        <v>3.4108989699999999</v>
+      </c>
+      <c r="AA44">
+        <v>4.7235481300000002</v>
+      </c>
+      <c r="AC44">
+        <f>SUMXMY2(C44:AA44,C45:AA45)/COUNT(C44:AA44)</f>
         <v>7.0994734990058319</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>3</v>
       </c>
-      <c r="C44">
-        <f>AVERAGE(C43:AA43)</f>
+      <c r="C45">
+        <f>AVERAGE(C44:AA44)</f>
         <v>3.9999999991999999</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="E44">
+      <c r="E45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="H44">
+      <c r="H45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="I44">
+      <c r="I45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="J44">
+      <c r="J45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="K44">
+      <c r="K45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="L44">
+      <c r="L45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="M44">
+      <c r="M45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="N44">
+      <c r="N45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="O44">
+      <c r="O45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="P44">
+      <c r="P45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="Q44">
+      <c r="Q45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="R44">
+      <c r="R45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="S44">
+      <c r="S45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="T44">
+      <c r="T45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="U44">
+      <c r="U45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="V44">
+      <c r="V45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="W44">
+      <c r="W45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="X44">
+      <c r="X45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="Y44">
+      <c r="Y45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="Z44">
+      <c r="Z45">
         <v>3.9999999989999999</v>
       </c>
-      <c r="AA44">
+      <c r="AA45">
         <v>3.9999999989999999</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A46">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A47">
         <v>200010</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>5</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>64.566731379999993</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>66.737406160000006</v>
       </c>
-      <c r="E46">
+      <c r="E47">
         <v>64.895193500000005</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>67.022955019999998</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <v>60.560640849999999</v>
       </c>
-      <c r="H46">
+      <c r="H47">
         <v>59.161198069999998</v>
       </c>
-      <c r="I46">
+      <c r="I47">
         <v>62.62311665</v>
       </c>
-      <c r="J46">
+      <c r="J47">
         <v>56.166938860000002</v>
       </c>
-      <c r="K46">
+      <c r="K47">
         <v>51.802075250000001</v>
       </c>
-      <c r="L46">
+      <c r="L47">
         <v>43.786922410000003</v>
       </c>
-      <c r="M46">
+      <c r="M47">
         <v>33.330474150000001</v>
       </c>
-      <c r="N46">
+      <c r="N47">
         <v>15.43770336</v>
       </c>
-      <c r="O46">
+      <c r="O47">
         <v>15.33273793</v>
       </c>
-      <c r="P46">
+      <c r="P47">
         <v>15.13280973</v>
       </c>
-      <c r="Q46">
+      <c r="Q47">
         <v>16.30513676</v>
       </c>
-      <c r="R46">
+      <c r="R47">
         <v>15.17196708</v>
       </c>
-      <c r="S46">
+      <c r="S47">
         <v>15.088066270000001</v>
       </c>
-      <c r="T46">
+      <c r="T47">
         <v>16.877252559999999</v>
       </c>
-      <c r="U46">
+      <c r="U47">
         <v>17.80854025</v>
       </c>
-      <c r="V46">
+      <c r="V47">
         <v>28.081639330000002</v>
       </c>
-      <c r="W46">
+      <c r="W47">
         <v>37.079977749999998</v>
       </c>
-      <c r="X46">
+      <c r="X47">
         <v>43.418573219999999</v>
       </c>
-      <c r="Y46">
+      <c r="Y47">
         <v>46.372106729999999</v>
       </c>
-      <c r="Z46">
+      <c r="Z47">
         <v>42.487079440000002</v>
       </c>
-      <c r="AA46">
+      <c r="AA47">
         <v>50.3527573</v>
-      </c>
-      <c r="AC46">
-        <f>SUMXMY2(C46:AA46,C47:AA47)/COUNT(C46:AA46)</f>
-        <v>92.550990156234164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="27" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47">
-        <v>83.7</v>
-      </c>
-      <c r="D47">
-        <v>87.9</v>
-      </c>
-      <c r="E47">
-        <v>71.5</v>
-      </c>
-      <c r="F47">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="G47">
-        <v>67.7</v>
-      </c>
-      <c r="H47">
-        <v>56.1</v>
-      </c>
-      <c r="I47">
-        <v>69.7</v>
-      </c>
-      <c r="J47">
-        <v>58.9</v>
-      </c>
-      <c r="K47">
-        <v>62.2</v>
-      </c>
-      <c r="L47">
-        <v>60.1</v>
-      </c>
-      <c r="M47">
-        <v>14.8</v>
-      </c>
-      <c r="N47">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="O47">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="P47">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="Q47">
-        <v>7.5</v>
-      </c>
-      <c r="R47">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="S47">
-        <v>10.5</v>
-      </c>
-      <c r="T47">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="U47">
-        <v>12.6</v>
-      </c>
-      <c r="V47">
-        <v>15.2</v>
-      </c>
-      <c r="W47">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="X47">
-        <v>40.9</v>
-      </c>
-      <c r="Y47">
-        <v>51.7</v>
-      </c>
-      <c r="Z47">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="AA47">
-        <v>47.5</v>
       </c>
       <c r="AC47">
         <f>SUMXMY2(C47:AA47,C48:AA48)/COUNT(C47:AA47)</f>
+        <v>92.550990156234164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="27" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>83.7</v>
+      </c>
+      <c r="D48">
+        <v>87.9</v>
+      </c>
+      <c r="E48">
+        <v>71.5</v>
+      </c>
+      <c r="F48">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="G48">
+        <v>67.7</v>
+      </c>
+      <c r="H48">
+        <v>56.1</v>
+      </c>
+      <c r="I48">
+        <v>69.7</v>
+      </c>
+      <c r="J48">
+        <v>58.9</v>
+      </c>
+      <c r="K48">
+        <v>62.2</v>
+      </c>
+      <c r="L48">
+        <v>60.1</v>
+      </c>
+      <c r="M48">
+        <v>14.8</v>
+      </c>
+      <c r="N48">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="O48">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P48">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Q48">
+        <v>7.5</v>
+      </c>
+      <c r="R48">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="S48">
+        <v>10.5</v>
+      </c>
+      <c r="T48">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="U48">
+        <v>12.6</v>
+      </c>
+      <c r="V48">
+        <v>15.2</v>
+      </c>
+      <c r="W48">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="X48">
+        <v>40.9</v>
+      </c>
+      <c r="Y48">
+        <v>51.7</v>
+      </c>
+      <c r="Z48">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AA48">
+        <v>47.5</v>
+      </c>
+      <c r="AC48">
+        <f>SUMXMY2(C48:AA48,C49:AA49)/COUNT(C48:AA48)</f>
         <v>718.01293401812461</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>3</v>
       </c>
-      <c r="C48">
-        <f>AVERAGE(C47:Z47)</f>
+      <c r="C49">
+        <f>AVERAGE(C48:Z48)</f>
         <v>39.920833333333341</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>39.920833330000001</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>39.920833330000001</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>39.920833330000001</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>39.920833330000001</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <v>39.920833330000001</v>
       </c>
-      <c r="I48">
+      <c r="I49">
         <v>39.920833330000001</v>
       </c>
-      <c r="J48">
+      <c r="J49">
         <v>39.920833330000001</v>
       </c>
-      <c r="K48">
+      <c r="K49">
         <v>39.920833330000001</v>
       </c>
-      <c r="L48">
+      <c r="L49">
         <v>39.920833330000001</v>
       </c>
-      <c r="M48">
+      <c r="M49">
         <v>39.920833330000001</v>
       </c>
-      <c r="N48">
+      <c r="N49">
         <v>39.920833330000001</v>
       </c>
-      <c r="O48">
+      <c r="O49">
         <v>39.920833330000001</v>
       </c>
-      <c r="P48">
+      <c r="P49">
         <v>39.920833330000001</v>
       </c>
-      <c r="Q48">
+      <c r="Q49">
         <v>39.920833330000001</v>
       </c>
-      <c r="R48">
+      <c r="R49">
         <v>39.920833330000001</v>
       </c>
-      <c r="S48">
+      <c r="S49">
         <v>39.920833330000001</v>
       </c>
-      <c r="T48">
+      <c r="T49">
         <v>39.920833330000001</v>
       </c>
-      <c r="U48">
+      <c r="U49">
         <v>39.920833330000001</v>
       </c>
-      <c r="V48">
+      <c r="V49">
         <v>39.920833330000001</v>
       </c>
-      <c r="W48">
+      <c r="W49">
         <v>39.920833330000001</v>
       </c>
-      <c r="X48">
+      <c r="X49">
         <v>39.920833330000001</v>
       </c>
-      <c r="Y48">
+      <c r="Y49">
         <v>39.920833330000001</v>
       </c>
-      <c r="Z48">
+      <c r="Z49">
         <v>39.920833330000001</v>
       </c>
-      <c r="AA48">
+      <c r="AA49">
         <v>39.920833330000001</v>
       </c>
     </row>
@@ -3426,6 +4016,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
